--- a/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_glucose_conflicting.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_glucose_conflicting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07782EF9-1195-914D-ACE2-D9BA809ED4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4C5DB-C8F4-1E48-A710-3B18E836BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21180" windowHeight="8320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>label</t>
   </si>
@@ -184,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -899,15 +897,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" activeCellId="1" sqref="L8 A15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -915,131 +911,107 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="C2">
+        <v>9553199.8908905108</v>
       </c>
       <c r="D2">
-        <v>9553199.8908905108</v>
-      </c>
-      <c r="E2">
         <v>481379.86936945003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>20483.785987891501</v>
       </c>
       <c r="D3">
-        <v>20483.785987891501</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4">
+        <v>7796.5240842087896</v>
       </c>
       <c r="D4">
-        <v>7796.5240842087896</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="C5">
+        <v>17014.401526796901</v>
       </c>
       <c r="D5">
-        <v>17014.401526796901</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6">
+        <v>618.081651788915</v>
       </c>
       <c r="D6">
-        <v>618.081651788915</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -1051,15 +1023,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" activeCellId="1" sqref="L8 A15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1067,131 +1037,107 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="C2">
+        <v>0.995216975280795</v>
       </c>
       <c r="D2">
-        <v>0.995216975280795</v>
-      </c>
-      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>2.13392494305573E-3</v>
       </c>
       <c r="D3">
-        <v>2.13392494305573E-3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4">
+        <v>8.1221299725854103E-4</v>
       </c>
       <c r="D4">
-        <v>8.1221299725854103E-4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="C5">
+        <v>1.7724973220604599E-3</v>
       </c>
       <c r="D5">
-        <v>1.7724973220604599E-3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6">
+        <v>6.4389456830739696E-5</v>
       </c>
       <c r="D6">
-        <v>6.4389456830739696E-5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -1203,45 +1149,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="L8 A3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2">
+        <v>9599112.6841411907</v>
       </c>
       <c r="C2">
-        <v>9599112.6841411907</v>
+        <v>481379.86936945003</v>
       </c>
       <c r="D2">
-        <v>481379.86936945003</v>
-      </c>
-      <c r="E2">
         <v>6365385.5512731103</v>
       </c>
     </row>

--- a/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_glucose_conflicting.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_glucose_conflicting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4C5DB-C8F4-1E48-A710-3B18E836BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5F2AA-3324-334A-A179-04674A853A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21180" windowHeight="8320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26900" windowHeight="11800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,19 @@
     <sheet name="Normalized" sheetId="3" r:id="rId3"/>
     <sheet name="PoolAfterDF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
   <si>
     <t>label</t>
   </si>
@@ -124,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,6 +150,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,11 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -897,121 +923,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>9553199.8908905108</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>481379.86936945003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>20483.785987891501</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7796.5240842087896</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>17014.401526796901</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>618.081651788915</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
